--- a/input/event.xlsx
+++ b/input/event.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_7790C75EAE9ABC96DC228567D04050E0228024D1" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{957022E5-2DF0-4C52-9619-6D79B59EF968}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
     <sheet name="Layout Design" sheetId="6" r:id="rId2"/>
-    <sheet name="Data Mapping" sheetId="4" r:id="rId3"/>
+    <sheet name="Layout Mapping" sheetId="4" r:id="rId3"/>
     <sheet name="Event Info" sheetId="1" r:id="rId4"/>
     <sheet name="Event Schedule" sheetId="3" r:id="rId5"/>
     <sheet name="Loc Coordinates" sheetId="5" r:id="rId6"/>
@@ -20,7 +21,7 @@
     <definedName name="loc_coor">'Loc Coordinates'!$B$3:$E$40</definedName>
     <definedName name="Project_Name">Notes!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -215,7 +216,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -2243,11 +2244,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,7 +2317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2331,11 +2332,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,11 +2541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3254,7 +3255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:R25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3823,7 +3824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:E40"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">

--- a/input/event.xlsx
+++ b/input/event.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_7790C75EAE9ABC96DC228567D04050E0228024D1" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{957022E5-2DF0-4C52-9619-6D79B59EF968}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_7790C75EAE9ABC96DC228567D04050E0228024D1" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{EFE78A55-B0EB-4098-8DE4-36D429515FEA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
   <si>
     <t>Name of project</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Test in progress!</t>
+  </si>
+  <si>
+    <t>dsadsd</t>
   </si>
 </sst>
 </file>
@@ -2333,10 +2336,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B3:R20"/>
+  <dimension ref="B3:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,6 +2536,11 @@
         <v>14</v>
       </c>
       <c r="R20" s="2"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/event.xlsx
+++ b/input/event.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_7790C75EAE9ABC96DC228567D04050E0228024D1" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{EFE78A55-B0EB-4098-8DE4-36D429515FEA}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_7790C75EAE9ABC96DC228567D04050E0228024D1" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{1B472ABD-62F4-4567-8559-2D72D15428F4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="797" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
   <si>
     <t>Name of project</t>
   </si>
@@ -214,6 +214,36 @@
   </si>
   <si>
     <t>dsadsd</t>
+  </si>
+  <si>
+    <t>Planning Meetup</t>
+  </si>
+  <si>
+    <t>For Data Scientists and Stakeholders</t>
+  </si>
+  <si>
+    <t>Share, learn and have fun!</t>
+  </si>
+  <si>
+    <t>Grimross</t>
+  </si>
+  <si>
+    <t>600 Bishop Drive, Fredericton, NB E3C 0B4</t>
+  </si>
+  <si>
+    <t>This is where we'll be</t>
+  </si>
+  <si>
+    <t>Where we hang out and talk about Data Science stuff around large electrical wire spools</t>
+  </si>
+  <si>
+    <t>Meet &amp; Greet</t>
+  </si>
+  <si>
+    <t>Ideation</t>
+  </si>
+  <si>
+    <t>first event</t>
   </si>
 </sst>
 </file>
@@ -378,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -445,6 +475,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2338,7 +2377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -2552,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2678,7 +2717,7 @@
         <v>-66.646791899999997</v>
       </c>
       <c r="P4" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="22">
         <v>43252</v>
@@ -2744,24 +2783,52 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="27"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+    <row r="6" spans="2:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="27">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>62</v>
+      </c>
       <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="F6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="23"/>
+      <c r="K6" s="22">
+        <v>43263</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="21">
+        <v>45.941000000000003</v>
+      </c>
+      <c r="O6" s="21">
+        <v>-66.67</v>
+      </c>
+      <c r="P6" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>43259</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="27"/>
@@ -3266,15 +3333,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:R25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -3447,13 +3515,27 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="B6" s="43">
+        <v>3</v>
+      </c>
+      <c r="C6" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D6" s="42">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="42">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G6" s="42">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>69</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -3463,7 +3545,9 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="15"/>
+      <c r="R6" s="40" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="35"/>
@@ -3836,7 +3920,7 @@
   <dimension ref="B2:E40"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3890,10 +3974,18 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="15"/>
+      <c r="B6" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="38">
+        <v>45.941000000000003</v>
+      </c>
+      <c r="E6" s="40">
+        <v>-66.674000000000007</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>

--- a/input/event.xlsx
+++ b/input/event.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_7790C75EAE9ABC96DC228567D04050E0228024D1" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{1B472ABD-62F4-4567-8559-2D72D15428F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950A410F-51BC-445F-B3B0-C6EC310212F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="797" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="797" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -26,12 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
   <si>
     <t>Name of project</t>
   </si>
@@ -244,6 +249,21 @@
   </si>
   <si>
     <t>first event</t>
+  </si>
+  <si>
+    <t>Second Meeting</t>
+  </si>
+  <si>
+    <t>Where we hang out and further explore the world of Data Science.</t>
+  </si>
+  <si>
+    <t>Planet Hatch</t>
+  </si>
+  <si>
+    <t>140 - 50 Crowther Ln, Fredericton, NB E3C 0J1</t>
+  </si>
+  <si>
+    <t>no schedule yet</t>
   </si>
 </sst>
 </file>
@@ -408,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -484,6 +504,9 @@
     <xf numFmtId="18" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2293,13 +2316,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2307,10 +2330,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2318,10 +2341,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2329,10 +2352,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2340,7 +2363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -2363,10 +2386,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2381,18 +2404,18 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="16" max="16" width="6.81640625" customWidth="1"/>
+    <col min="17" max="17" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2400,7 +2423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
@@ -2414,7 +2437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -2424,7 +2447,7 @@
       </c>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -2434,7 +2457,7 @@
       </c>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -2444,7 +2467,7 @@
       </c>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>48</v>
       </c>
@@ -2454,7 +2477,7 @@
       </c>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>49</v>
       </c>
@@ -2464,7 +2487,7 @@
       </c>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>50</v>
       </c>
@@ -2474,7 +2497,7 @@
       </c>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>51</v>
       </c>
@@ -2484,7 +2507,7 @@
       </c>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>52</v>
       </c>
@@ -2494,7 +2517,7 @@
       </c>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -2504,7 +2527,7 @@
       </c>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
@@ -2514,7 +2537,7 @@
       </c>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -2524,7 +2547,7 @@
       </c>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2534,7 +2557,7 @@
       </c>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
@@ -2544,7 +2567,7 @@
       </c>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>12</v>
       </c>
@@ -2556,7 +2579,7 @@
       </c>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
@@ -2566,7 +2589,7 @@
       </c>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>14</v>
       </c>
@@ -2576,7 +2599,7 @@
       </c>
       <c r="R20" s="2"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>60</v>
       </c>
@@ -2591,26 +2614,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="1.54296875" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="25" customWidth="1"/>
     <col min="3" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="10" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31.26953125" customWidth="1"/>
+    <col min="7" max="10" width="19.7265625" customWidth="1"/>
     <col min="11" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="15" width="11.28515625" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="15" width="11.26953125" customWidth="1"/>
+    <col min="16" max="16" width="9.453125" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M2" s="2">
         <v>2</v>
       </c>
@@ -2621,7 +2644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" s="26" t="s">
         <v>36</v>
       </c>
@@ -2674,7 +2697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" s="20" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B4" s="27">
         <v>1</v>
       </c>
@@ -2705,7 +2728,7 @@
         <v>43</v>
       </c>
       <c r="M4" s="24" t="str">
-        <f t="shared" ref="M4:O5" si="0">VLOOKUP($L4,loc_coor,M$2,FALSE)</f>
+        <f t="shared" ref="M4:O7" si="0">VLOOKUP($L4,loc_coor,M$2,FALSE)</f>
         <v>280 King St, Fredericton, NB E3B 1C8</v>
       </c>
       <c r="N4" s="24">
@@ -2726,7 +2749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:18" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" s="20" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="27">
         <v>2</v>
       </c>
@@ -2783,7 +2806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B6" s="27">
         <v>3</v>
       </c>
@@ -2811,17 +2834,20 @@
       <c r="L6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" s="21">
+      <c r="M6" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>600 Bishop Drive, Fredericton, NB E3C 0B4</v>
+      </c>
+      <c r="N6" s="44">
+        <f t="shared" si="0"/>
         <v>45.941000000000003</v>
       </c>
-      <c r="O6" s="21">
-        <v>-66.67</v>
+      <c r="O6" s="44">
+        <f t="shared" si="0"/>
+        <v>-66.674000000000007</v>
       </c>
       <c r="P6" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="22">
         <v>43259</v>
@@ -2830,26 +2856,55 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+    <row r="7" spans="2:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="27">
+        <v>4</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>62</v>
+      </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="F7" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
+      <c r="K7" s="22">
+        <v>43399</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>140 - 50 Crowther Ln, Fredericton, NB E3C 0J1</v>
+      </c>
+      <c r="N7" s="24">
+        <f t="shared" si="0"/>
+        <v>45.931562999999997</v>
+      </c>
+      <c r="O7" s="24">
+        <f t="shared" si="0"/>
+        <v>-66.658212599999999</v>
+      </c>
+      <c r="P7" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>43296</v>
+      </c>
       <c r="R7" s="23"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" s="27"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -2868,7 +2923,7 @@
       <c r="Q8" s="21"/>
       <c r="R8" s="23"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9" s="27"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -2887,7 +2942,7 @@
       <c r="Q9" s="21"/>
       <c r="R9" s="23"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B10" s="27"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -2906,7 +2961,7 @@
       <c r="Q10" s="21"/>
       <c r="R10" s="23"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B11" s="27"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -2925,7 +2980,7 @@
       <c r="Q11" s="21"/>
       <c r="R11" s="23"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B12" s="27"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -2944,7 +2999,7 @@
       <c r="Q12" s="21"/>
       <c r="R12" s="23"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" s="27"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -2963,7 +3018,7 @@
       <c r="Q13" s="21"/>
       <c r="R13" s="23"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B14" s="27"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -2982,7 +3037,7 @@
       <c r="Q14" s="21"/>
       <c r="R14" s="23"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B15" s="27"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -3001,7 +3056,7 @@
       <c r="Q15" s="21"/>
       <c r="R15" s="23"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B16" s="27"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -3020,7 +3075,7 @@
       <c r="Q16" s="21"/>
       <c r="R16" s="23"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="27"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -3039,7 +3094,7 @@
       <c r="Q17" s="21"/>
       <c r="R17" s="23"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="27"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -3058,7 +3113,7 @@
       <c r="Q18" s="21"/>
       <c r="R18" s="23"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="27"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -3077,7 +3132,7 @@
       <c r="Q19" s="21"/>
       <c r="R19" s="23"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="27"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -3096,7 +3151,7 @@
       <c r="Q20" s="21"/>
       <c r="R20" s="23"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="27"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -3115,7 +3170,7 @@
       <c r="Q21" s="21"/>
       <c r="R21" s="23"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="27"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -3134,7 +3189,7 @@
       <c r="Q22" s="21"/>
       <c r="R22" s="23"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="27"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -3153,7 +3208,7 @@
       <c r="Q23" s="21"/>
       <c r="R23" s="23"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="27"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -3172,7 +3227,7 @@
       <c r="Q24" s="21"/>
       <c r="R24" s="23"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" s="27"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -3191,7 +3246,7 @@
       <c r="Q25" s="21"/>
       <c r="R25" s="23"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B26" s="27"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -3210,7 +3265,7 @@
       <c r="Q26" s="21"/>
       <c r="R26" s="23"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" s="27"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
@@ -3229,7 +3284,7 @@
       <c r="Q27" s="21"/>
       <c r="R27" s="23"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" s="27"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
@@ -3248,7 +3303,7 @@
       <c r="Q28" s="21"/>
       <c r="R28" s="23"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" s="27"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -3267,7 +3322,7 @@
       <c r="Q29" s="21"/>
       <c r="R29" s="23"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B30" s="27"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
@@ -3286,7 +3341,7 @@
       <c r="Q30" s="21"/>
       <c r="R30" s="23"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="27"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -3305,7 +3360,7 @@
       <c r="Q31" s="21"/>
       <c r="R31" s="23"/>
     </row>
-    <row r="32" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="36"/>
       <c r="C32" s="32"/>
       <c r="D32" s="30"/>
@@ -3334,31 +3389,31 @@
   <dimension ref="B2:R25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.54296875" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
         <v>36</v>
       </c>
@@ -3411,7 +3466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" s="34">
         <v>1</v>
       </c>
@@ -3458,7 +3513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" s="34">
         <v>2</v>
       </c>
@@ -3514,7 +3569,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" s="43">
         <v>3</v>
       </c>
@@ -3549,7 +3604,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7" s="35"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -3566,9 +3621,11 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="15"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R7" s="40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" s="35"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3587,7 +3644,7 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="15"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9" s="35"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3606,7 +3663,7 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="15"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B10" s="35"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -3625,7 +3682,7 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="15"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B11" s="35"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -3644,7 +3701,7 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="15"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B12" s="35"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3663,7 +3720,7 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="15"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" s="35"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -3682,7 +3739,7 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="15"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B14" s="35"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -3701,7 +3758,7 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="15"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B15" s="35"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3720,7 +3777,7 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="15"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B16" s="35"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -3739,7 +3796,7 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="15"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="35"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -3758,7 +3815,7 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="15"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="35"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3777,7 +3834,7 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="15"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="35"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -3796,7 +3853,7 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="15"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="35"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -3815,7 +3872,7 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="15"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="35"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3834,7 +3891,7 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="15"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="35"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3853,7 +3910,7 @@
       <c r="Q22" s="7"/>
       <c r="R22" s="15"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="35"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -3872,7 +3929,7 @@
       <c r="Q23" s="7"/>
       <c r="R23" s="15"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="35"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -3891,7 +3948,7 @@
       <c r="Q24" s="7"/>
       <c r="R24" s="15"/>
     </row>
-    <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="36"/>
       <c r="C25" s="32"/>
       <c r="D25" s="31"/>
@@ -3917,23 +3974,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:E40"/>
+  <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.54296875" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
         <v>41</v>
       </c>
@@ -3947,7 +4005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
@@ -3959,7 +4017,7 @@
         <v>-66.646332000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
         <v>43</v>
       </c>
@@ -3973,7 +4031,7 @@
         <v>-66.646791899999997</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="39" t="s">
         <v>64</v>
       </c>
@@ -3983,209 +4041,221 @@
       <c r="D6" s="38">
         <v>45.941000000000003</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="12">
         <v>-66.674000000000007</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="38">
+        <v>45.931562999999997</v>
+      </c>
+      <c r="E7" s="12">
+        <f>G7+0.0005</f>
+        <v>-66.658212599999999</v>
+      </c>
+      <c r="G7" s="12">
+        <v>-66.658712600000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="14"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="14"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="14"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="14"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="14"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="14"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="14"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="14"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="14"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="14"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="14"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="14"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="14"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="14"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="14"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="14"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="14"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="14"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="14"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="14"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="14"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="15"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="14"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="14"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="14"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="14"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="15"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="14"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="14"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="15"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="14"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="15"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="14"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="15"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="14"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="15"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="14"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="15"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="14"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="16"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -4193,5 +4263,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input/event.xlsx
+++ b/input/event.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_7790C75EAE9ABC96DC228567D04050E0228024D1" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{1B472ABD-62F4-4567-8559-2D72D15428F4}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="797" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="797" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="loc_coor">'Loc Coordinates'!$B$3:$E$40</definedName>
     <definedName name="Project_Name">Notes!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
   <si>
     <t>Name of project</t>
   </si>
@@ -244,12 +243,36 @@
   </si>
   <si>
     <t>first event</t>
+  </si>
+  <si>
+    <t>Kaggle Competition</t>
+  </si>
+  <si>
+    <t>Planning next meetup</t>
+  </si>
+  <si>
+    <t>second event</t>
+  </si>
+  <si>
+    <t>Planet Hatch</t>
+  </si>
+  <si>
+    <t>140 - 50 Crowther Lane, Fredericton, NB E3C 0J1</t>
+  </si>
+  <si>
+    <t>Second Meeting</t>
+  </si>
+  <si>
+    <t>This meetup will be for practitioners interested in building on their skillsets.  All capabilities welcome.  We will be picking a Kaggle competition to work on.</t>
+  </si>
+  <si>
+    <t>Learn, share, be challenged, grow, network and have fun.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -408,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -484,6 +507,9 @@
     <xf numFmtId="18" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2286,7 +2312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2359,7 +2385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2374,7 +2400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2588,11 +2614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2705,7 +2731,7 @@
         <v>43</v>
       </c>
       <c r="M4" s="24" t="str">
-        <f t="shared" ref="M4:O5" si="0">VLOOKUP($L4,loc_coor,M$2,FALSE)</f>
+        <f t="shared" ref="M4:O6" si="0">VLOOKUP($L4,loc_coor,M$2,FALSE)</f>
         <v>280 King St, Fredericton, NB E3B 1C8</v>
       </c>
       <c r="N4" s="24">
@@ -2811,17 +2837,20 @@
       <c r="L6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" s="21">
+      <c r="M6" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>600 Bishop Drive, Fredericton, NB E3C 0B4</v>
+      </c>
+      <c r="N6" s="44">
+        <f t="shared" si="0"/>
         <v>45.941000000000003</v>
       </c>
-      <c r="O6" s="21">
-        <v>-66.67</v>
+      <c r="O6" s="44">
+        <f t="shared" si="0"/>
+        <v>-66.674000000000007</v>
       </c>
       <c r="P6" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="22">
         <v>43259</v>
@@ -2830,23 +2859,50 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+    <row r="7" spans="2:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="B7" s="27">
+        <v>4</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>62</v>
+      </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="F7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
+      <c r="K7" s="22">
+        <v>43399</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="24" t="str">
+        <f t="shared" ref="M7:O7" si="3">VLOOKUP($L7,loc_coor,M$2,FALSE)</f>
+        <v>140 - 50 Crowther Lane, Fredericton, NB E3C 0J1</v>
+      </c>
+      <c r="N7" s="24">
+        <v>45.931604999999998</v>
+      </c>
+      <c r="O7" s="24">
+        <v>-66.658276000000001</v>
+      </c>
+      <c r="P7" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>43296</v>
+      </c>
       <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
@@ -3330,11 +3386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3345,16 +3401,16 @@
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3536,37 +3592,59 @@
       <c r="H6" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
       <c r="R6" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="35"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="15"/>
+      <c r="B7" s="43">
+        <v>4</v>
+      </c>
+      <c r="C7" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D7" s="42">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="42">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G7" s="42">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="42">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="J7" s="42">
+        <v>0.875</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="40" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="35"/>
@@ -3576,16 +3654,16 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="15"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="40"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="35"/>
@@ -3595,16 +3673,16 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="15"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="40"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="35"/>
@@ -3614,16 +3692,16 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="15"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="40"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="35"/>
@@ -3633,16 +3711,16 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="15"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="40"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="35"/>
@@ -3652,16 +3730,16 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="15"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="40"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="35"/>
@@ -3671,16 +3749,16 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="15"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="40"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="35"/>
@@ -3690,16 +3768,16 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="15"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="40"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="35"/>
@@ -3709,16 +3787,16 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="15"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="40"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="35"/>
@@ -3728,16 +3806,16 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="15"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="40"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="35"/>
@@ -3747,16 +3825,16 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="15"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="40"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="35"/>
@@ -3766,16 +3844,16 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="15"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="40"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="35"/>
@@ -3785,16 +3863,16 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="15"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="40"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="35"/>
@@ -3804,16 +3882,16 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="15"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="40"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="35"/>
@@ -3823,16 +3901,16 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="15"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="40"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="35"/>
@@ -3842,16 +3920,16 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="15"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="40"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="35"/>
@@ -3861,16 +3939,16 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="15"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="40"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="35"/>
@@ -3880,16 +3958,16 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="15"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="40"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="36"/>
@@ -3916,7 +3994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E40"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3927,7 +4005,7 @@
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3983,15 +4061,23 @@
       <c r="D6" s="38">
         <v>45.941000000000003</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="12">
         <v>-66.674000000000007</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="15"/>
+      <c r="B7" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="38">
+        <v>45.931604999999998</v>
+      </c>
+      <c r="E7" s="40">
+        <v>-66.658276000000001</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>

--- a/input/event.xlsx
+++ b/input/event.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950A410F-51BC-445F-B3B0-C6EC310212F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="797" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="797" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="loc_coor">'Loc Coordinates'!$B$3:$E$40</definedName>
     <definedName name="Project_Name">Notes!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
   <si>
     <t>Name of project</t>
   </si>
@@ -254,22 +253,28 @@
     <t>Second Meeting</t>
   </si>
   <si>
-    <t>Where we hang out and further explore the world of Data Science.</t>
-  </si>
-  <si>
     <t>Planet Hatch</t>
   </si>
   <si>
-    <t>140 - 50 Crowther Ln, Fredericton, NB E3C 0J1</t>
-  </si>
-  <si>
-    <t>no schedule yet</t>
+    <t>Kaggle Competition</t>
+  </si>
+  <si>
+    <t>Planning next meetup</t>
+  </si>
+  <si>
+    <t>This meetup will be for practitioners interested in building on their skillsets.  All capabilities welcome.  We will be picking a Kaggle competition to work on.</t>
+  </si>
+  <si>
+    <t>Learn, share, be challenged, grow, network and have fun.</t>
+  </si>
+  <si>
+    <t>140 - 50 Crowther Lane, Fredericton, NB E3C 0J1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -428,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -488,9 +493,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2309,20 +2311,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2330,10 +2332,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2341,10 +2343,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2352,10 +2354,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2363,7 +2365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -2382,14 +2384,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2397,25 +2399,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" customWidth="1"/>
-    <col min="17" max="17" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2423,7 +2425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
@@ -2437,7 +2439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -2447,7 +2449,7 @@
       </c>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -2457,7 +2459,7 @@
       </c>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -2467,7 +2469,7 @@
       </c>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>48</v>
       </c>
@@ -2477,7 +2479,7 @@
       </c>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>49</v>
       </c>
@@ -2487,7 +2489,7 @@
       </c>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>50</v>
       </c>
@@ -2497,7 +2499,7 @@
       </c>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>51</v>
       </c>
@@ -2507,7 +2509,7 @@
       </c>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>52</v>
       </c>
@@ -2517,7 +2519,7 @@
       </c>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -2527,7 +2529,7 @@
       </c>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
@@ -2537,7 +2539,7 @@
       </c>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -2547,7 +2549,7 @@
       </c>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2557,7 +2559,7 @@
       </c>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
@@ -2567,7 +2569,7 @@
       </c>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>12</v>
       </c>
@@ -2579,7 +2581,7 @@
       </c>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
@@ -2589,7 +2591,7 @@
       </c>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>14</v>
       </c>
@@ -2599,7 +2601,7 @@
       </c>
       <c r="R20" s="2"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>60</v>
       </c>
@@ -2611,29 +2613,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:O6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.54296875" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="25" customWidth="1"/>
     <col min="3" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="31.26953125" customWidth="1"/>
-    <col min="7" max="10" width="19.7265625" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="15" width="11.26953125" customWidth="1"/>
-    <col min="16" max="16" width="9.453125" customWidth="1"/>
-    <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M2" s="2">
         <v>2</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
         <v>36</v>
       </c>
@@ -2697,7 +2699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="20" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="27">
         <v>1</v>
       </c>
@@ -2749,7 +2751,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:18" s="20" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="27">
         <v>2</v>
       </c>
@@ -2806,7 +2808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="27">
         <v>3</v>
       </c>
@@ -2838,11 +2840,11 @@
         <f t="shared" si="0"/>
         <v>600 Bishop Drive, Fredericton, NB E3C 0B4</v>
       </c>
-      <c r="N6" s="44">
+      <c r="N6" s="43">
         <f t="shared" si="0"/>
         <v>45.941000000000003</v>
       </c>
-      <c r="O6" s="44">
+      <c r="O6" s="43">
         <f t="shared" si="0"/>
         <v>-66.674000000000007</v>
       </c>
@@ -2856,7 +2858,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="27">
         <v>4</v>
       </c>
@@ -2868,13 +2870,13 @@
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>57</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -2882,19 +2884,19 @@
         <v>43399</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M7" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>140 - 50 Crowther Ln, Fredericton, NB E3C 0J1</v>
+        <v>140 - 50 Crowther Lane, Fredericton, NB E3C 0J1</v>
       </c>
       <c r="N7" s="24">
         <f t="shared" si="0"/>
-        <v>45.931562999999997</v>
+        <v>45.931604999999998</v>
       </c>
       <c r="O7" s="24">
         <f t="shared" si="0"/>
-        <v>-66.658212599999999</v>
+        <v>-66.658276000000001</v>
       </c>
       <c r="P7" s="21">
         <v>1</v>
@@ -2904,7 +2906,7 @@
       </c>
       <c r="R7" s="23"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="27"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -2923,7 +2925,7 @@
       <c r="Q8" s="21"/>
       <c r="R8" s="23"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -2942,7 +2944,7 @@
       <c r="Q9" s="21"/>
       <c r="R9" s="23"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -2961,7 +2963,7 @@
       <c r="Q10" s="21"/>
       <c r="R10" s="23"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -2980,7 +2982,7 @@
       <c r="Q11" s="21"/>
       <c r="R11" s="23"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="27"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -2999,7 +3001,7 @@
       <c r="Q12" s="21"/>
       <c r="R12" s="23"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -3018,7 +3020,7 @@
       <c r="Q13" s="21"/>
       <c r="R13" s="23"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -3037,7 +3039,7 @@
       <c r="Q14" s="21"/>
       <c r="R14" s="23"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -3056,7 +3058,7 @@
       <c r="Q15" s="21"/>
       <c r="R15" s="23"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="27"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -3075,7 +3077,7 @@
       <c r="Q16" s="21"/>
       <c r="R16" s="23"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="27"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -3094,7 +3096,7 @@
       <c r="Q17" s="21"/>
       <c r="R17" s="23"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="27"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -3113,7 +3115,7 @@
       <c r="Q18" s="21"/>
       <c r="R18" s="23"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -3132,7 +3134,7 @@
       <c r="Q19" s="21"/>
       <c r="R19" s="23"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -3151,7 +3153,7 @@
       <c r="Q20" s="21"/>
       <c r="R20" s="23"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="27"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -3170,7 +3172,7 @@
       <c r="Q21" s="21"/>
       <c r="R21" s="23"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="27"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -3189,7 +3191,7 @@
       <c r="Q22" s="21"/>
       <c r="R22" s="23"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -3208,7 +3210,7 @@
       <c r="Q23" s="21"/>
       <c r="R23" s="23"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -3227,7 +3229,7 @@
       <c r="Q24" s="21"/>
       <c r="R24" s="23"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -3246,7 +3248,7 @@
       <c r="Q25" s="21"/>
       <c r="R25" s="23"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -3265,7 +3267,7 @@
       <c r="Q26" s="21"/>
       <c r="R26" s="23"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
@@ -3284,7 +3286,7 @@
       <c r="Q27" s="21"/>
       <c r="R27" s="23"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
@@ -3303,7 +3305,7 @@
       <c r="Q28" s="21"/>
       <c r="R28" s="23"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="27"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -3322,7 +3324,7 @@
       <c r="Q29" s="21"/>
       <c r="R29" s="23"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
@@ -3341,7 +3343,7 @@
       <c r="Q30" s="21"/>
       <c r="R30" s="23"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -3360,8 +3362,8 @@
       <c r="Q31" s="21"/>
       <c r="R31" s="23"/>
     </row>
-    <row r="32" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="36"/>
+    <row r="32" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="35"/>
       <c r="C32" s="32"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
@@ -3385,35 +3387,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.54296875" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>36</v>
       </c>
@@ -3466,7 +3467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="34">
         <v>1</v>
       </c>
@@ -3513,7 +3514,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="34">
         <v>2</v>
       </c>
@@ -3569,387 +3570,405 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="43">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="42">
         <v>3</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="41">
         <v>0.72916666666666663</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="41">
         <v>0.77083333333333337</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="40" t="s">
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="39" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="35"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="35"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="42">
+        <v>4</v>
+      </c>
+      <c r="C7" s="41">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D7" s="41">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="41">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G7" s="41">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="41">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="J7" s="41">
+        <v>0.875</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="39"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="42"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
       <c r="R8" s="15"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="35"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="42"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
       <c r="R9" s="15"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="35"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="42"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
       <c r="R10" s="15"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B11" s="35"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="42"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
       <c r="R11" s="15"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B12" s="35"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="42"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
       <c r="R12" s="15"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B13" s="35"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="42"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
       <c r="R13" s="15"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B14" s="35"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="42"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
       <c r="R14" s="15"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B15" s="35"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="42"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
       <c r="R15" s="15"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B16" s="35"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="42"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
       <c r="R16" s="15"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B17" s="35"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="42"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
       <c r="R17" s="15"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B18" s="35"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="42"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
       <c r="R18" s="15"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B19" s="35"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="42"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
       <c r="R19" s="15"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B20" s="35"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="42"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
       <c r="R20" s="15"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B21" s="35"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="42"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
       <c r="R21" s="15"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B22" s="35"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="42"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
       <c r="R22" s="15"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B23" s="35"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="42"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
       <c r="R23" s="15"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B24" s="35"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="42"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
       <c r="R24" s="15"/>
     </row>
-    <row r="25" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="36"/>
+    <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="35"/>
       <c r="C25" s="32"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
@@ -3973,25 +3992,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.54296875" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>41</v>
       </c>
@@ -4005,7 +4024,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
@@ -4017,7 +4036,7 @@
         <v>-66.646332000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>43</v>
       </c>
@@ -4031,231 +4050,230 @@
         <v>-66.646791899999997</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>45.941000000000003</v>
       </c>
       <c r="E6" s="12">
         <v>-66.674000000000007</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="38">
-        <v>45.931562999999997</v>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="37">
+        <v>45.931604999999998</v>
       </c>
       <c r="E7" s="12">
-        <f>G7+0.0005</f>
-        <v>-66.658212599999999</v>
-      </c>
-      <c r="G7" s="12">
+        <v>-66.658276000000001</v>
+      </c>
+      <c r="G7" s="37">
         <v>-66.658712600000001</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="15"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="15"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="14"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="15"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="14"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="15"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="14"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="15"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="14"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="15"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="14"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="15"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="14"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="16"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>

--- a/input/event.xlsx
+++ b/input/event.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A35EA4E-8CBF-4EB9-98AA-90C0020F95BB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="797" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="797" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <definedName name="loc_coor">'Loc Coordinates'!$B$3:$E$40</definedName>
     <definedName name="Project_Name">Notes!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
   <si>
     <t>Name of project</t>
   </si>
@@ -269,12 +270,15 @@
   </si>
   <si>
     <t>140 - 50 Crowther Lane, Fredericton, NB E3C 0J1</t>
+  </si>
+  <si>
+    <t>second event</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -2311,7 +2315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2384,7 +2388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2399,7 +2403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2613,11 +2617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2881,7 +2885,7 @@
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="22">
-        <v>43399</v>
+        <v>43420</v>
       </c>
       <c r="L7" s="21" t="s">
         <v>72</v>
@@ -3387,11 +3391,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:R25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,7 +3414,7 @@
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3610,19 +3614,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="41">
-        <v>0.70833333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D7" s="41">
-        <v>0.72916666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="E7" s="36" t="s">
         <v>68</v>
       </c>
       <c r="F7" s="41">
-        <v>0.72916666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="G7" s="41">
-        <v>0.83333333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>73</v>
@@ -3631,7 +3635,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="J7" s="41">
-        <v>0.875</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="K7" s="36" t="s">
         <v>74</v>
@@ -3642,7 +3646,9 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="39"/>
+      <c r="R7" s="39" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="42"/>
@@ -3992,7 +3998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:G40"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">

--- a/input/event.xlsx
+++ b/input/event.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A35EA4E-8CBF-4EB9-98AA-90C0020F95BB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46E0D18-14F8-4393-955E-A2B03B3D0F3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="797" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="797" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="loc_coor">'Loc Coordinates'!$B$3:$E$40</definedName>
     <definedName name="Project_Name">Notes!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="98">
   <si>
     <t>Name of project</t>
   </si>
@@ -254,9 +255,6 @@
     <t>Second Meeting</t>
   </si>
   <si>
-    <t>Planet Hatch</t>
-  </si>
-  <si>
     <t>Kaggle Competition</t>
   </si>
   <si>
@@ -273,6 +271,66 @@
   </si>
   <si>
     <t>second event</t>
+  </si>
+  <si>
+    <t>Planet Hatch (Might change)</t>
+  </si>
+  <si>
+    <t>This meetup will be for practitioners interested in building on their skillsets.  All capabilities welcome.</t>
+  </si>
+  <si>
+    <t>third event</t>
+  </si>
+  <si>
+    <t>Morneau Shepell</t>
+  </si>
+  <si>
+    <t>300 - 40 Crowther Lane, Fredericton, NB, E3C 0J1</t>
+  </si>
+  <si>
+    <t>Next Meeting</t>
+  </si>
+  <si>
+    <t>Discussion/Presentations</t>
+  </si>
+  <si>
+    <t>Planning &amp; Closing Remarks</t>
+  </si>
+  <si>
+    <t>Tilley Hall Room 404, UNB</t>
+  </si>
+  <si>
+    <t>9 Macaulay Ln, Fredericton, NB</t>
+  </si>
+  <si>
+    <t>Live Streaming with TDLS</t>
+  </si>
+  <si>
+    <t>fourth event</t>
+  </si>
+  <si>
+    <t>Presentations</t>
+  </si>
+  <si>
+    <t>fifth event</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>CyberNB</t>
+  </si>
+  <si>
+    <t>Sixth event</t>
+  </si>
+  <si>
+    <t>200 - 40 Crowther Lane, Fredericton, NB, E3C 0J1</t>
+  </si>
+  <si>
+    <t>The Picaroons Roundhouse</t>
+  </si>
+  <si>
+    <t>912 Union St, Fredericton, NB E3A 5M5</t>
   </si>
 </sst>
 </file>
@@ -437,15 +495,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -461,16 +517,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -482,10 +538,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -502,16 +558,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2620,17 +2667,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="23" customWidth="1"/>
     <col min="3" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="10" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="45.28515625" customWidth="1"/>
+    <col min="8" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="15" width="11.28515625" customWidth="1"/>
@@ -2651,739 +2699,855 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="27">
+    <row r="4" spans="2:18" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22">
+      <c r="J4" s="19"/>
+      <c r="K4" s="20">
         <v>43265</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="24" t="str">
-        <f t="shared" ref="M4:O7" si="0">VLOOKUP($L4,loc_coor,M$2,FALSE)</f>
+      <c r="M4" s="22" t="str">
+        <f t="shared" ref="M4:O11" si="0">VLOOKUP($L4,loc_coor,M$2,FALSE)</f>
         <v>280 King St, Fredericton, NB E3B 1C8</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="22">
         <f t="shared" si="0"/>
         <v>45.962948900000001</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="22">
         <f t="shared" si="0"/>
         <v>-66.646791899999997</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="19">
         <v>0</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="20">
         <v>43252</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:18" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="27">
+    <row r="5" spans="2:18" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="21" t="str">
+      <c r="D5" s="19" t="str">
         <f>D4&amp;" 2"</f>
         <v>A Planning Get Together 2</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21" t="str">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="str">
         <f t="shared" ref="F5:I5" si="1">F4&amp;" 2"</f>
         <v>Data science practitioners in greater Fredericton area get together and communicate! 2</v>
       </c>
-      <c r="G5" s="21" t="str">
+      <c r="G5" s="19" t="str">
         <f t="shared" ref="G5" si="2">G4&amp;" 2"</f>
         <v>Please join us! 2</v>
       </c>
-      <c r="H5" s="21" t="str">
+      <c r="H5" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Have fun! 2</v>
       </c>
-      <c r="I5" s="21" t="str">
+      <c r="I5" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Test in progress! 2</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="22">
+      <c r="J5" s="19"/>
+      <c r="K5" s="20">
         <v>43265</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="24" t="str">
+      <c r="M5" s="22" t="str">
         <f t="shared" si="0"/>
         <v>280 King St, Fredericton, NB E3B 1C8</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="22">
         <f t="shared" si="0"/>
         <v>45.962948900000001</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="22">
         <f t="shared" si="0"/>
         <v>-66.646791899999997</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="19">
         <v>0</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="20">
         <v>43252</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="R5" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="27">
+      <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22">
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20">
         <v>43263</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="24" t="str">
+      <c r="M6" s="22" t="str">
         <f t="shared" si="0"/>
         <v>600 Bishop Drive, Fredericton, NB E3C 0B4</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="34">
         <f t="shared" si="0"/>
         <v>45.941000000000003</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="34">
         <f t="shared" si="0"/>
         <v>-66.674000000000007</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="19">
         <v>0</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="20">
         <v>43259</v>
       </c>
-      <c r="R6" s="23" t="s">
+      <c r="R6" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="B7" s="27">
+      <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22">
-        <v>43420</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" s="24" t="str">
-        <f t="shared" si="0"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20">
+        <v>43427</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="22" t="str">
+        <f>VLOOKUP($L7,loc_coor,M$2,FALSE)</f>
         <v>140 - 50 Crowther Lane, Fredericton, NB E3C 0J1</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="22">
         <f t="shared" si="0"/>
         <v>45.931604999999998</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="22">
         <f t="shared" si="0"/>
         <v>-66.658276000000001</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>43296</v>
+      </c>
+      <c r="R7" s="21"/>
+    </row>
+    <row r="8" spans="2:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="25">
+        <v>5</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20">
+        <v>43511</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="22" t="str">
+        <f>VLOOKUP($L8,loc_coor,M$2,FALSE)</f>
+        <v>300 - 40 Crowther Lane, Fredericton, NB, E3C 0J1</v>
+      </c>
+      <c r="N8" s="22">
+        <f t="shared" si="0"/>
+        <v>45.9312094</v>
+      </c>
+      <c r="O8" s="22">
+        <f t="shared" si="0"/>
+        <v>-66.660360800000007</v>
+      </c>
+      <c r="P8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>43497</v>
+      </c>
+      <c r="R8" s="21"/>
+    </row>
+    <row r="9" spans="2:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="25">
+        <v>6</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20">
+        <v>43538</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="22" t="str">
+        <f>VLOOKUP($L9,loc_coor,M$2,FALSE)</f>
+        <v>9 Macaulay Ln, Fredericton, NB</v>
+      </c>
+      <c r="N9" s="22">
+        <f t="shared" si="0"/>
+        <v>45.945833</v>
+      </c>
+      <c r="O9" s="22">
+        <f t="shared" si="0"/>
+        <v>-66.642458000000005</v>
+      </c>
+      <c r="P9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>43530</v>
+      </c>
+      <c r="R9" s="21"/>
+    </row>
+    <row r="10" spans="2:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="25">
+        <v>7</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20">
+        <v>43580</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="22" t="str">
+        <f>VLOOKUP($L10,loc_coor,M$2,FALSE)</f>
+        <v>9 Macaulay Ln, Fredericton, NB</v>
+      </c>
+      <c r="N10" s="22">
+        <f t="shared" si="0"/>
+        <v>45.945833</v>
+      </c>
+      <c r="O10" s="22">
+        <f t="shared" si="0"/>
+        <v>-66.642458000000005</v>
+      </c>
+      <c r="P10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>43563</v>
+      </c>
+      <c r="R10" s="21"/>
+    </row>
+    <row r="11" spans="2:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="25">
+        <v>8</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20">
+        <v>43664</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="22" t="str">
+        <f>VLOOKUP($L11,loc_coor,M$2,FALSE)</f>
+        <v>912 Union St, Fredericton, NB E3A 5M5</v>
+      </c>
+      <c r="N11" s="22">
+        <f t="shared" si="0"/>
+        <v>45.958992500000001</v>
+      </c>
+      <c r="O11" s="22">
+        <f t="shared" si="0"/>
+        <v>-66.626755399999993</v>
+      </c>
+      <c r="P11" s="19">
         <v>1</v>
       </c>
-      <c r="Q7" s="22">
-        <v>43296</v>
-      </c>
-      <c r="R7" s="23"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="23"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="23"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="23"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="23"/>
+      <c r="Q11" s="20">
+        <v>43649</v>
+      </c>
+      <c r="R11" s="21"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="21"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="21"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="23"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="21"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="23"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="21"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="23"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="21"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="23"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="21"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="23"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="21"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="23"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="21"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="23"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="21"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="23"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="21"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="23"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="21"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="23"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="21"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="23"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="21"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="23"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="21"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="23"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="21"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="23"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="21"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="21"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="23"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="21"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="23"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="21"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="23"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="21"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="35"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3395,7 +3559,7 @@
   <dimension ref="B2:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3405,7 +3569,7 @@
     <col min="3" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -3419,114 +3583,114 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="34">
+      <c r="B4" s="32">
         <v>1</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="27">
         <v>0.75</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="27">
         <v>0.79166666666666663</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="27">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="27">
         <v>0.83333333333333337</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="27">
         <v>0.83333333333333337</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="27">
         <v>0.875</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="27">
         <v>0.875</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="27">
         <v>0.91666666666666663</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="13" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="34">
+      <c r="B5" s="32">
         <v>2</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="27">
         <f>C4</f>
         <v>0.75</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="27">
         <f t="shared" ref="D5:J5" si="0">D4</f>
         <v>0.79166666666666663</v>
       </c>
@@ -3534,11 +3698,11 @@
         <f>E4</f>
         <v>Drink and talk</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="27">
         <f t="shared" si="0"/>
         <v>0.79166666666666663</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="27">
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
@@ -3546,11 +3710,11 @@
         <f>H4</f>
         <v>Drink and talk</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="27">
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="27">
         <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
@@ -3558,439 +3722,509 @@
         <f>K4</f>
         <v>Drink and talk</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="27">
         <v>0.875</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="27">
         <v>0.91666666666666663</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="13" t="s">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="42">
+      <c r="B6" s="32">
         <v>3</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="27">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="27">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="27">
         <v>0.72916666666666663</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="27">
         <v>0.77083333333333337</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="39" t="s">
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="42">
+      <c r="B7" s="32">
         <v>4</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="27">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="27">
         <v>0.8125</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="27">
         <v>0.8125</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="27">
         <v>0.85416666666666663</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="41">
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="32">
+        <v>5</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G8" s="27">
         <v>0.85416666666666663</v>
       </c>
-      <c r="J7" s="41">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="42"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="15"/>
+      <c r="H8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="27">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="J8" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="11" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="42"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="15"/>
+      <c r="B9" s="32">
+        <v>6</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G9" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="42"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="15"/>
+      <c r="B10" s="32">
+        <v>7</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G10" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="11" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="15"/>
+      <c r="B11" s="32">
+        <v>8</v>
+      </c>
+      <c r="C11" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="27">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G11" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="11" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="42"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="15"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="13"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="15"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="13"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="42"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="15"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="13"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="15"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="13"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="42"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="15"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="13"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="42"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="15"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="13"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="42"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="15"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="13"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="42"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="15"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="13"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="15"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="42"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="15"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="13"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="42"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="15"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="13"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="42"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="15"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="13"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="42"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="15"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="13"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4002,13 +4236,13 @@
   <dimension ref="B2:G40"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -4017,273 +4251,247 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6">
+      <c r="C4" s="2"/>
+      <c r="D4" s="5">
         <v>45.964993</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>-66.646332000000001</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>45.962948900000001</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>-66.646791899999997</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="5">
         <v>45.941000000000003</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>-66.674000000000007</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="37">
+      <c r="B7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="5">
         <v>45.931604999999998</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>-66.658276000000001</v>
       </c>
-      <c r="G7" s="37">
-        <v>-66.658712600000001</v>
-      </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="5">
+        <v>45.9312094</v>
+      </c>
+      <c r="E8" s="10">
+        <v>-66.660360800000007</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="5">
+        <v>45.945833</v>
+      </c>
+      <c r="E9" s="10">
+        <v>-66.642458000000005</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="15"/>
+      <c r="B10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="5">
+        <v>45.9312094</v>
+      </c>
+      <c r="E10" s="10">
+        <v>-66.660360800000007</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="15"/>
+      <c r="B11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="5">
+        <v>45.958992500000001</v>
+      </c>
+      <c r="E11" s="10">
+        <v>-66.626755399999993</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="15"/>
+      <c r="B12" s="12"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="15"/>
+      <c r="B13" s="12"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="15"/>
+      <c r="B14" s="12"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="15"/>
+      <c r="B15" s="12"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="15"/>
+      <c r="B16" s="12"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="15"/>
+      <c r="B17" s="12"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="15"/>
+      <c r="B18" s="12"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="15"/>
+      <c r="B19" s="12"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="15"/>
+      <c r="B20" s="12"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="15"/>
+      <c r="B21" s="12"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="15"/>
+      <c r="B22" s="12"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="15"/>
+      <c r="B23" s="12"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="15"/>
+      <c r="B24" s="12"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="15"/>
+      <c r="B25" s="12"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="15"/>
+      <c r="B26" s="12"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="15"/>
+      <c r="B27" s="12"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="15"/>
+      <c r="B28" s="12"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="15"/>
+      <c r="B29" s="12"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="15"/>
+      <c r="B30" s="12"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="15"/>
+      <c r="B31" s="12"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="15"/>
+      <c r="B32" s="12"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="15"/>
+      <c r="B33" s="12"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="15"/>
+      <c r="B34" s="12"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="15"/>
+      <c r="B35" s="12"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="14"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="15"/>
+      <c r="B36" s="12"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="14"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="15"/>
+      <c r="B37" s="12"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="14"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="15"/>
+      <c r="B38" s="12"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="14"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="15"/>
+      <c r="B39" s="12"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/event.xlsx
+++ b/input/event.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46E0D18-14F8-4393-955E-A2B03B3D0F3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399B1A2C-F90C-4724-BBEE-466B6C17C485}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="797" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="797" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="100">
   <si>
     <t>Name of project</t>
   </si>
@@ -331,14 +331,21 @@
   </si>
   <si>
     <t>912 Union St, Fredericton, NB E3A 5M5</t>
+  </si>
+  <si>
+    <t>Seven event</t>
+  </si>
+  <si>
+    <t>Meet, Greet, Chat &amp; Enjoy summer!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -558,7 +565,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2667,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2782,14 +2789,14 @@
         <v>43</v>
       </c>
       <c r="M4" s="22" t="str">
-        <f t="shared" ref="M4:O11" si="0">VLOOKUP($L4,loc_coor,M$2,FALSE)</f>
+        <f t="shared" ref="M4:O12" si="0">VLOOKUP($L4,loc_coor,M$2,FALSE)</f>
         <v>280 King St, Fredericton, NB E3B 1C8</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="34">
         <f t="shared" si="0"/>
         <v>45.962948900000001</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="34">
         <f t="shared" si="0"/>
         <v>-66.646791899999997</v>
       </c>
@@ -2842,11 +2849,11 @@
         <f t="shared" si="0"/>
         <v>280 King St, Fredericton, NB E3B 1C8</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="34">
         <f t="shared" si="0"/>
         <v>45.962948900000001</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="34">
         <f t="shared" si="0"/>
         <v>-66.646791899999997</v>
       </c>
@@ -2939,14 +2946,14 @@
         <v>78</v>
       </c>
       <c r="M7" s="22" t="str">
-        <f>VLOOKUP($L7,loc_coor,M$2,FALSE)</f>
+        <f t="shared" ref="M7:M12" si="3">VLOOKUP($L7,loc_coor,M$2,FALSE)</f>
         <v>140 - 50 Crowther Lane, Fredericton, NB E3C 0J1</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="34">
         <f t="shared" si="0"/>
         <v>45.931604999999998</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="34">
         <f t="shared" si="0"/>
         <v>-66.658276000000001</v>
       </c>
@@ -2987,14 +2994,14 @@
         <v>81</v>
       </c>
       <c r="M8" s="22" t="str">
-        <f>VLOOKUP($L8,loc_coor,M$2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>300 - 40 Crowther Lane, Fredericton, NB, E3C 0J1</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="34">
         <f t="shared" si="0"/>
         <v>45.9312094</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="34">
         <f t="shared" si="0"/>
         <v>-66.660360800000007</v>
       </c>
@@ -3035,14 +3042,14 @@
         <v>86</v>
       </c>
       <c r="M9" s="22" t="str">
-        <f>VLOOKUP($L9,loc_coor,M$2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>9 Macaulay Ln, Fredericton, NB</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="34">
         <f t="shared" si="0"/>
         <v>45.945833</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="34">
         <f t="shared" si="0"/>
         <v>-66.642458000000005</v>
       </c>
@@ -3083,14 +3090,14 @@
         <v>86</v>
       </c>
       <c r="M10" s="22" t="str">
-        <f>VLOOKUP($L10,loc_coor,M$2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>9 Macaulay Ln, Fredericton, NB</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="34">
         <f t="shared" si="0"/>
         <v>45.945833</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="34">
         <f t="shared" si="0"/>
         <v>-66.642458000000005</v>
       </c>
@@ -3131,42 +3138,71 @@
         <v>96</v>
       </c>
       <c r="M11" s="22" t="str">
-        <f>VLOOKUP($L11,loc_coor,M$2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>912 Union St, Fredericton, NB E3A 5M5</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="34">
         <f t="shared" si="0"/>
         <v>45.958992500000001</v>
       </c>
-      <c r="O11" s="22">
+      <c r="O11" s="34">
         <f t="shared" si="0"/>
         <v>-66.626755399999993</v>
       </c>
       <c r="P11" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="20">
         <v>43649</v>
       </c>
       <c r="R11" s="21"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+    <row r="12" spans="2:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="25">
+        <v>9</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>62</v>
+      </c>
       <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="F12" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
+      <c r="K12" s="20">
+        <v>43699</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>600 Bishop Drive, Fredericton, NB E3C 0B4</v>
+      </c>
+      <c r="N12" s="34">
+        <f t="shared" si="0"/>
+        <v>45.941000000000003</v>
+      </c>
+      <c r="O12" s="34">
+        <f t="shared" si="0"/>
+        <v>-66.674000000000007</v>
+      </c>
+      <c r="P12" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>43691</v>
+      </c>
       <c r="R12" s="21"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
@@ -3559,7 +3595,7 @@
   <dimension ref="B2:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3961,10 +3997,18 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="32">
+        <v>9</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="2"/>
@@ -3977,7 +4021,9 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="13"/>
+      <c r="R12" s="11" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="32"/>

--- a/input/event.xlsx
+++ b/input/event.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46E0D18-14F8-4393-955E-A2B03B3D0F3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7A2CCF-ACD7-4A45-94BB-03DF47BE8DB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="797" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1920" windowWidth="21600" windowHeight="12735" tabRatio="797" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="106">
   <si>
     <t>Name of project</t>
   </si>
@@ -331,6 +331,30 @@
   </si>
   <si>
     <t>912 Union St, Fredericton, NB E3A 5M5</t>
+  </si>
+  <si>
+    <t>Moncton Location</t>
+  </si>
+  <si>
+    <t>80 Driscoll Crescent, Moncton, NB E1E 3R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Fredericton and Saint John DSPEast groups are each planning to share transportation to Moncton. Possibly a group will be attending from Halifax. If you need a drive, let us know. If you have a ride and room to spare, let us know. A big part of the fun is the trip! One last item is to sign-up here before it's too late: https://lnkd.in/d-8W2SH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Moulay Akhloufi's discussion is going to be great! </t>
+  </si>
+  <si>
+    <t>Our next event is joining the Moncton Artificial Intelligence and DataScience Meetup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a great central location for our East Coast membership from NS, PEI and NB! </t>
+  </si>
+  <si>
+    <t>Seventh Event</t>
+  </si>
+  <si>
+    <t>Meet up</t>
   </si>
 </sst>
 </file>
@@ -2667,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2782,7 +2806,7 @@
         <v>43</v>
       </c>
       <c r="M4" s="22" t="str">
-        <f t="shared" ref="M4:O11" si="0">VLOOKUP($L4,loc_coor,M$2,FALSE)</f>
+        <f t="shared" ref="M4:O12" si="0">VLOOKUP($L4,loc_coor,M$2,FALSE)</f>
         <v>280 King St, Fredericton, NB E3B 1C8</v>
       </c>
       <c r="N4" s="22">
@@ -3143,30 +3167,59 @@
         <v>-66.626755399999993</v>
       </c>
       <c r="P11" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="20">
         <v>43649</v>
       </c>
       <c r="R11" s="21"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+    <row r="12" spans="2:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="25">
+        <v>9</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>62</v>
+      </c>
       <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="F12" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
+      <c r="K12" s="20">
+        <v>43734</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="22" t="str">
+        <f>VLOOKUP($L12,loc_coor,M$2,FALSE)</f>
+        <v>80 Driscoll Crescent, Moncton, NB E1E 3R8</v>
+      </c>
+      <c r="N12" s="22">
+        <f t="shared" si="0"/>
+        <v>46.084999699999997</v>
+      </c>
+      <c r="O12" s="22">
+        <f t="shared" si="0"/>
+        <v>-64.838275899999999</v>
+      </c>
+      <c r="P12" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>43727</v>
+      </c>
       <c r="R12" s="21"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
@@ -3558,8 +3611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3961,13 +4014,27 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="2"/>
+      <c r="B12" s="32">
+        <v>9</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G12" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
       <c r="K12" s="2"/>
@@ -3977,7 +4044,9 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="13"/>
+      <c r="R12" s="11" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="32"/>
@@ -4236,7 +4305,7 @@
   <dimension ref="B2:G40"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4376,8 +4445,18 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="E12" s="13"/>
+      <c r="B12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="5">
+        <v>46.084999699999997</v>
+      </c>
+      <c r="E12" s="10">
+        <v>-64.838275899999999</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
